--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H2">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I2">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J2">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>318.688715891152</v>
+        <v>90.44858929397674</v>
       </c>
       <c r="R2">
-        <v>1274.754863564608</v>
+        <v>361.794357175907</v>
       </c>
       <c r="S2">
-        <v>0.04533676096554207</v>
+        <v>0.02061187366494796</v>
       </c>
       <c r="T2">
-        <v>0.02839716593055748</v>
+        <v>0.01225718546605471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H3">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I3">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J3">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>473.4151063826053</v>
+        <v>230.3940566702157</v>
       </c>
       <c r="R3">
-        <v>2840.490638295632</v>
+        <v>1382.364340021294</v>
       </c>
       <c r="S3">
-        <v>0.06734818788775555</v>
+        <v>0.05250334169178234</v>
       </c>
       <c r="T3">
-        <v>0.06327638849270259</v>
+        <v>0.04683294739465237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H4">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I4">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J4">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>46.01471268075333</v>
+        <v>29.9596652739405</v>
       </c>
       <c r="R4">
-        <v>276.08827608452</v>
+        <v>179.757991643643</v>
       </c>
       <c r="S4">
-        <v>0.006546068077345853</v>
+        <v>0.006827357292035876</v>
       </c>
       <c r="T4">
-        <v>0.006150299803940558</v>
+        <v>0.006089998361998698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H5">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I5">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J5">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>132.417457364906</v>
+        <v>63.33623456074124</v>
       </c>
       <c r="R5">
-        <v>529.669829459624</v>
+        <v>253.344938242965</v>
       </c>
       <c r="S5">
-        <v>0.01883775079839367</v>
+        <v>0.01443337563769439</v>
       </c>
       <c r="T5">
-        <v>0.01179922702433581</v>
+        <v>0.008583041259044244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H6">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I6">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J6">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>156.8788786578227</v>
+        <v>6.082085943686001</v>
       </c>
       <c r="R6">
-        <v>941.273271946936</v>
+        <v>36.49251566211601</v>
       </c>
       <c r="S6">
-        <v>0.02231764059283862</v>
+        <v>0.001386015946397519</v>
       </c>
       <c r="T6">
-        <v>0.02096833991653265</v>
+        <v>0.001236325342619935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H7">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I7">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J7">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>63.45928222040801</v>
+        <v>23.825207089308</v>
       </c>
       <c r="R7">
-        <v>380.7556933224481</v>
+        <v>142.951242535848</v>
       </c>
       <c r="S7">
-        <v>0.009027738246164209</v>
+        <v>0.005429406499308904</v>
       </c>
       <c r="T7">
-        <v>0.008481930849078903</v>
+        <v>0.004843027144043975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J8">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>479.7604363926866</v>
+        <v>279.7888366199692</v>
       </c>
       <c r="R8">
-        <v>2878.56261835612</v>
+        <v>1678.733019719815</v>
       </c>
       <c r="S8">
-        <v>0.06825087661054294</v>
+        <v>0.06375966942424841</v>
       </c>
       <c r="T8">
-        <v>0.06412450162094697</v>
+        <v>0.05687358457249624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J9">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
         <v>712.6886730140255</v>
@@ -1013,10 +1013,10 @@
         <v>6414.198057126231</v>
       </c>
       <c r="S9">
-        <v>0.1013873237429657</v>
+        <v>0.162411033773666</v>
       </c>
       <c r="T9">
-        <v>0.1428863319103873</v>
+        <v>0.2173058082384033</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>16.585895</v>
       </c>
       <c r="I10">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J10">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>69.2714788299639</v>
+        <v>92.67562886221501</v>
       </c>
       <c r="R10">
-        <v>623.4433094696751</v>
+        <v>834.0806597599351</v>
       </c>
       <c r="S10">
-        <v>0.009854583237005273</v>
+        <v>0.02111938250047188</v>
       </c>
       <c r="T10">
-        <v>0.01388817851441677</v>
+        <v>0.02825771363635745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>16.585895</v>
       </c>
       <c r="I11">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J11">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>199.3439176337058</v>
+        <v>195.9209261522375</v>
       </c>
       <c r="R11">
-        <v>1196.063505802235</v>
+        <v>1175.525556913425</v>
       </c>
       <c r="S11">
-        <v>0.02835873092783374</v>
+        <v>0.04464743352761657</v>
       </c>
       <c r="T11">
-        <v>0.02664419239223318</v>
+        <v>0.03982548230891707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>16.585895</v>
       </c>
       <c r="I12">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J12">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>236.1686358276295</v>
+        <v>18.81399990524667</v>
       </c>
       <c r="R12">
-        <v>2125.517722448665</v>
+        <v>169.32599914722</v>
       </c>
       <c r="S12">
-        <v>0.03359742738344212</v>
+        <v>0.00428742772227086</v>
       </c>
       <c r="T12">
-        <v>0.04734924429622012</v>
+        <v>0.005736574201911599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>16.585895</v>
       </c>
       <c r="I13">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J13">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>95.53288652249668</v>
+        <v>73.69962346324</v>
       </c>
       <c r="R13">
-        <v>859.7959787024702</v>
+        <v>663.29661116916</v>
       </c>
       <c r="S13">
-        <v>0.01359053968543396</v>
+        <v>0.01679503616182655</v>
       </c>
       <c r="T13">
-        <v>0.01915330529147078</v>
+        <v>0.02247174236095959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H14">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I14">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J14">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N14">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O14">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P14">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q14">
-        <v>97.24226515223198</v>
+        <v>139.4051389969452</v>
       </c>
       <c r="R14">
-        <v>583.4535909133918</v>
+        <v>836.4308339816711</v>
       </c>
       <c r="S14">
-        <v>0.01383371644843671</v>
+        <v>0.03176833531267572</v>
       </c>
       <c r="T14">
-        <v>0.01299734475035989</v>
+        <v>0.02833733489285856</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H15">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I15">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J15">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P15">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q15">
-        <v>144.4543060559853</v>
+        <v>355.0980257944203</v>
       </c>
       <c r="R15">
-        <v>1300.088754503868</v>
+        <v>3195.882232149783</v>
       </c>
       <c r="S15">
-        <v>0.02055011683043181</v>
+        <v>0.08092150141289639</v>
       </c>
       <c r="T15">
-        <v>0.02896151812503127</v>
+        <v>0.1082728916860438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H16">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I16">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J16">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N16">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O16">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P16">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q16">
-        <v>14.04058150880333</v>
+        <v>46.17574839383101</v>
       </c>
       <c r="R16">
-        <v>126.36523357923</v>
+        <v>415.581735544479</v>
       </c>
       <c r="S16">
-        <v>0.001997417718107226</v>
+        <v>0.01052275883689708</v>
       </c>
       <c r="T16">
-        <v>0.002814983969363909</v>
+        <v>0.01407944128436727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H17">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I17">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J17">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N17">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O17">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P17">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q17">
-        <v>40.404861728021</v>
+        <v>97.6178473473575</v>
       </c>
       <c r="R17">
-        <v>242.429170368126</v>
+        <v>585.707084084145</v>
       </c>
       <c r="S17">
-        <v>0.005748008845831639</v>
+        <v>0.02224563979022611</v>
       </c>
       <c r="T17">
-        <v>0.005400490379852666</v>
+        <v>0.0198430965436836</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H18">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I18">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J18">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N18">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O18">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P18">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q18">
-        <v>47.86883486781267</v>
+        <v>9.374099065438669</v>
       </c>
       <c r="R18">
-        <v>430.819513810314</v>
+        <v>84.36689158894802</v>
       </c>
       <c r="S18">
-        <v>0.006809836106159046</v>
+        <v>0.002136216243589281</v>
       </c>
       <c r="T18">
-        <v>0.009597181049839965</v>
+        <v>0.002858255295832269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H19">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I19">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J19">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N19">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O19">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P19">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q19">
-        <v>19.363485559228</v>
+        <v>36.72092988781601</v>
       </c>
       <c r="R19">
-        <v>174.271370033052</v>
+        <v>330.488368990344</v>
       </c>
       <c r="S19">
-        <v>0.002754655789439011</v>
+        <v>0.008368147846364242</v>
       </c>
       <c r="T19">
-        <v>0.003882168370737377</v>
+        <v>0.01119657383467431</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H20">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I20">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J20">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N20">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O20">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P20">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q20">
-        <v>741.6473235524019</v>
+        <v>325.3877809448737</v>
       </c>
       <c r="R20">
-        <v>2966.589294209607</v>
+        <v>1301.551123779495</v>
       </c>
       <c r="S20">
-        <v>0.1055069908409105</v>
+        <v>0.07415098328570759</v>
       </c>
       <c r="T20">
-        <v>0.06608543402605029</v>
+        <v>0.04409508661839237</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H21">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I21">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J21">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P21">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q21">
-        <v>1101.72412473448</v>
+        <v>828.840023133465</v>
       </c>
       <c r="R21">
-        <v>6610.344748406883</v>
+        <v>4973.04013880079</v>
       </c>
       <c r="S21">
-        <v>0.1567316343579549</v>
+        <v>0.188880180206605</v>
       </c>
       <c r="T21">
-        <v>0.1472558074058178</v>
+        <v>0.168481000608251</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H22">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I22">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J22">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N22">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O22">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P22">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q22">
-        <v>107.0847093166908</v>
+        <v>107.7795582820425</v>
       </c>
       <c r="R22">
-        <v>642.5082559001451</v>
+        <v>646.677349692255</v>
       </c>
       <c r="S22">
-        <v>0.01523390577472957</v>
+        <v>0.02456134093758934</v>
       </c>
       <c r="T22">
-        <v>0.01431288012781509</v>
+        <v>0.02190870049424457</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H23">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I23">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J23">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N23">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O23">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P23">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q23">
-        <v>308.1598059463122</v>
+        <v>227.8513902537562</v>
       </c>
       <c r="R23">
-        <v>1232.639223785249</v>
+        <v>911.4055610150249</v>
       </c>
       <c r="S23">
-        <v>0.04383891479278975</v>
+        <v>0.05192390624279123</v>
       </c>
       <c r="T23">
-        <v>0.02745897393359443</v>
+        <v>0.03087739422846569</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H24">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I24">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J24">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N24">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O24">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P24">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q24">
-        <v>365.0860374931352</v>
+        <v>21.88023565851</v>
       </c>
       <c r="R24">
-        <v>2190.516224958811</v>
+        <v>131.28141395106</v>
       </c>
       <c r="S24">
-        <v>0.05193725911317322</v>
+        <v>0.004986176751598387</v>
       </c>
       <c r="T24">
-        <v>0.04879718798623831</v>
+        <v>0.004447666490999665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H25">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I25">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J25">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N25">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O25">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P25">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q25">
-        <v>147.681434787283</v>
+        <v>85.71091407678</v>
       </c>
       <c r="R25">
-        <v>886.088608723698</v>
+        <v>514.26548446068</v>
       </c>
       <c r="S25">
-        <v>0.02100920921933789</v>
+        <v>0.01953222871078485</v>
       </c>
       <c r="T25">
-        <v>0.01973901490420035</v>
+        <v>0.01742273558666989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H26">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I26">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J26">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N26">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O26">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P26">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q26">
-        <v>114.292467760528</v>
+        <v>23.25123041799966</v>
       </c>
       <c r="R26">
-        <v>685.7548065631679</v>
+        <v>139.507382507998</v>
       </c>
       <c r="S26">
-        <v>0.01625928384860282</v>
+        <v>0.005298605845280101</v>
       </c>
       <c r="T26">
-        <v>0.01527626494022367</v>
+        <v>0.004726353043845209</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H27">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I27">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J27">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>386.726074</v>
       </c>
       <c r="O27">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P27">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q27">
-        <v>169.7825435465413</v>
+        <v>59.22641072007956</v>
       </c>
       <c r="R27">
-        <v>1528.042891918872</v>
+        <v>533.037696480716</v>
       </c>
       <c r="S27">
-        <v>0.02415332018068793</v>
+        <v>0.01349680857291043</v>
       </c>
       <c r="T27">
-        <v>0.03403955442028396</v>
+        <v>0.01805871699371492</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H28">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I28">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J28">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N28">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O28">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P28">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q28">
-        <v>16.50242008371334</v>
+        <v>7.701602490078001</v>
       </c>
       <c r="R28">
-        <v>148.52178075342</v>
+        <v>69.31442241070199</v>
       </c>
       <c r="S28">
-        <v>0.002347639679039682</v>
+        <v>0.001755079418952394</v>
       </c>
       <c r="T28">
-        <v>0.003308555843092093</v>
+        <v>0.002348294588097604</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H29">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I29">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J29">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N29">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O29">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P29">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q29">
-        <v>47.489343745634</v>
+        <v>16.281573820835</v>
       </c>
       <c r="R29">
-        <v>284.936062473804</v>
+        <v>97.68944292500998</v>
       </c>
       <c r="S29">
-        <v>0.006755849574986616</v>
+        <v>0.003710325890996769</v>
       </c>
       <c r="T29">
-        <v>0.006347398136644342</v>
+        <v>0.003309608334839868</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H30">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I30">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J30">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N30">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O30">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P30">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q30">
-        <v>56.26203027355066</v>
+        <v>1.563495714002667</v>
       </c>
       <c r="R30">
-        <v>506.358272461956</v>
+        <v>14.071461426024</v>
       </c>
       <c r="S30">
-        <v>0.008003854829987963</v>
+        <v>0.0003562971670897763</v>
       </c>
       <c r="T30">
-        <v>0.01127992549344278</v>
+        <v>0.0004767252696352908</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H31">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I31">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J31">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N31">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O31">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P31">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q31">
-        <v>22.758628108312</v>
+        <v>6.124643669008</v>
       </c>
       <c r="R31">
-        <v>204.827652974808</v>
+        <v>55.12179302107199</v>
       </c>
       <c r="S31">
-        <v>0.003237649879020569</v>
+        <v>0.001395714212170947</v>
       </c>
       <c r="T31">
-        <v>0.0045628575461383</v>
+        <v>0.001867464284281968</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H32">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I32">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J32">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N32">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O32">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P32">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q32">
-        <v>129.49101361016</v>
+        <v>35.55540448397033</v>
       </c>
       <c r="R32">
-        <v>776.9460816609599</v>
+        <v>213.332426903822</v>
       </c>
       <c r="S32">
-        <v>0.0184214339526057</v>
+        <v>0.008102542129736948</v>
       </c>
       <c r="T32">
-        <v>0.01730769376186383</v>
+        <v>0.007227462426154826</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H33">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I33">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J33">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>386.726074</v>
       </c>
       <c r="O33">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P33">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q33">
-        <v>192.3601273814267</v>
+        <v>90.56806678308044</v>
       </c>
       <c r="R33">
-        <v>1731.24114643284</v>
+        <v>815.1126010477241</v>
       </c>
       <c r="S33">
-        <v>0.02736521464215136</v>
+        <v>0.02063910078844911</v>
       </c>
       <c r="T33">
-        <v>0.03856611455757764</v>
+        <v>0.02761509716389117</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H34">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I34">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J34">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N34">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O34">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P34">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q34">
-        <v>18.69690230276667</v>
+        <v>11.777165628942</v>
       </c>
       <c r="R34">
-        <v>168.2721207249</v>
+        <v>105.994490660478</v>
       </c>
       <c r="S34">
-        <v>0.002659827437335882</v>
+        <v>0.002683838984883819</v>
       </c>
       <c r="T34">
-        <v>0.00374852567367326</v>
+        <v>0.003590974001216403</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H35">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I35">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J35">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N35">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O35">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P35">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q35">
-        <v>53.80444904023</v>
+        <v>24.897518644315</v>
       </c>
       <c r="R35">
-        <v>322.82669424138</v>
+        <v>149.38511186589</v>
       </c>
       <c r="S35">
-        <v>0.007654238519862581</v>
+        <v>0.005673770181194875</v>
       </c>
       <c r="T35">
-        <v>0.00719147144695023</v>
+        <v>0.00506099939286029</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H36">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I36">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J36">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N36">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O36">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P36">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q36">
-        <v>63.74372231731333</v>
+        <v>2.390872290237334</v>
       </c>
       <c r="R36">
-        <v>573.69350085582</v>
+        <v>21.517850612136</v>
       </c>
       <c r="S36">
-        <v>0.009068202787390128</v>
+        <v>0.0005448438497501083</v>
       </c>
       <c r="T36">
-        <v>0.01277992342114289</v>
+        <v>0.0007290005511489325</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H37">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I37">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J37">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N37">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O37">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P37">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q37">
-        <v>25.78505722964</v>
+        <v>9.365705773712</v>
       </c>
       <c r="R37">
-        <v>232.06551506676</v>
+        <v>84.291351963408</v>
       </c>
       <c r="S37">
-        <v>0.003668190675763641</v>
+        <v>0.002134303538592403</v>
       </c>
       <c r="T37">
-        <v>0.005169623687242417</v>
+        <v>0.002855696098371292</v>
       </c>
     </row>
   </sheetData>
